--- a/food-service/2021/2021-q2-nutrient-analysis-wk1.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11910"/>
+    <workbookView activeTab="0" windowHeight="11910" windowWidth="25170" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -3345,210 +3345,220 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="30">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <color rgb="FF44546A"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
       <i/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF808080"/>
       <sz val="10"/>
-      <color indexed="23"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="12"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="9"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <i/>
+      <color rgb="FF333333"/>
       <sz val="7"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3595,139 +3605,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF8EAADB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE4D5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF7CAAC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF4B083"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFECECEC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFDADADA"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC8C8C8"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFF2CB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFEE598"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFD965"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9CC2E5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE2EFD9"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC5E0B3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFA8D08D"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -3746,38 +3756,72 @@
   </fills>
   <borders count="14">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFA1B8E1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF8EAADB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3792,7 +3836,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3807,16 +3853,26 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -3831,7 +3887,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3846,18 +3904,26 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3872,23 +3938,31 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -3898,148 +3972,156 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4396,14 +4478,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313:S313"/>
+    <sheetView zoomScale="60" workbookViewId="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -4417,12 +4498,7 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" customWidth="1"/>
-    <col min="21" max="22" width="0.28515625" customWidth="1"/>
-    <col min="23" max="23" width="221.85546875" customWidth="1"/>
-    <col min="24" max="25" width="121.85546875" customWidth="1"/>
-    <col min="26" max="26" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4450,10 +4526,6 @@
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="23"/>
@@ -4476,10 +4548,6 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="23"/>
@@ -4502,10 +4570,6 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="26" t="s">
@@ -4528,8 +4592,6 @@
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -4558,8 +4620,6 @@
         <v>9</v>
       </c>
       <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
@@ -4588,8 +4648,6 @@
         <v>9</v>
       </c>
       <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
@@ -4618,8 +4676,6 @@
         <v>16</v>
       </c>
       <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
@@ -4648,8 +4704,6 @@
         <v>20</v>
       </c>
       <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
@@ -4674,8 +4728,6 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
@@ -4700,8 +4752,6 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="7"/>
@@ -4722,8 +4772,6 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="21" t="s">
@@ -4746,8 +4794,6 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="11" t="s">
@@ -4770,10 +4816,8 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
+    </row>
+    <row ht="18" customHeight="1" r="14" spans="1:25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -4792,13 +4836,6 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="12" t="s">
@@ -4821,13 +4858,6 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="16" t="s">
@@ -4850,13 +4880,6 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="17"/>
@@ -4877,13 +4900,6 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="10"/>
@@ -4906,13 +4922,6 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -4935,15 +4944,8 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="20" spans="1:25">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -4988,13 +4990,6 @@
       <c r="R20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="s">
@@ -5041,13 +5036,6 @@
       <c r="R21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
@@ -5094,13 +5082,6 @@
       <c r="R22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
@@ -5147,13 +5128,6 @@
       <c r="R23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
@@ -5200,13 +5174,6 @@
       <c r="R24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
@@ -5253,13 +5220,6 @@
       <c r="R25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="s">
@@ -5306,13 +5266,6 @@
       <c r="R26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
@@ -5359,13 +5312,6 @@
       <c r="R27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="s">
@@ -5412,13 +5358,6 @@
       <c r="R28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
@@ -5465,13 +5404,6 @@
       <c r="R29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="10"/>
@@ -5492,13 +5424,6 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="12" t="s">
@@ -5521,15 +5446,8 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-    </row>
-    <row r="32" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="32" spans="1:25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -5574,13 +5492,6 @@
       <c r="R32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="s">
@@ -5627,15 +5538,8 @@
       <c r="R33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-    </row>
-    <row r="34" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="34" spans="1:25">
       <c r="A34" s="2" t="s">
         <v>150</v>
       </c>
@@ -5680,13 +5584,6 @@
       <c r="R34" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2" t="s">
@@ -5733,13 +5630,6 @@
       <c r="R35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
@@ -5786,15 +5676,8 @@
       <c r="R36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-    </row>
-    <row r="37" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="37" spans="1:25">
       <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
@@ -5839,13 +5722,6 @@
       <c r="R37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2" t="s">
@@ -5892,13 +5768,6 @@
       <c r="R38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2" t="s">
@@ -5945,13 +5814,6 @@
       <c r="R39" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2" t="s">
@@ -5998,13 +5860,6 @@
       <c r="R40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2" t="s">
@@ -6051,13 +5906,6 @@
       <c r="R41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="2" t="s">
@@ -6104,13 +5952,6 @@
       <c r="R42" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="10"/>
@@ -6131,13 +5972,6 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="12" t="s">
@@ -6160,15 +5994,8 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-    </row>
-    <row r="45" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="45" spans="1:25">
       <c r="A45" s="4" t="s">
         <v>30</v>
       </c>
@@ -6213,13 +6040,6 @@
       <c r="R45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2" t="s">
@@ -6266,13 +6086,6 @@
       <c r="R46" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2" t="s">
@@ -6319,15 +6132,8 @@
       <c r="R47" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="48" spans="1:25">
       <c r="A48" s="2" t="s">
         <v>226</v>
       </c>
@@ -6372,13 +6178,6 @@
       <c r="R48" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="2" t="s">
@@ -6425,13 +6224,6 @@
       <c r="R49" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="2" t="s">
@@ -6478,13 +6270,6 @@
       <c r="R50" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="2" t="s">
@@ -6531,15 +6316,8 @@
       <c r="R51" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="52" spans="1:25">
       <c r="A52" s="2" t="s">
         <v>260</v>
       </c>
@@ -6584,13 +6362,6 @@
       <c r="R52" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="2" t="s">
@@ -6637,13 +6408,6 @@
       <c r="R53" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="2" t="s">
@@ -6690,13 +6454,6 @@
       <c r="R54" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="2" t="s">
@@ -6743,13 +6500,6 @@
       <c r="R55" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="2" t="s">
@@ -6796,13 +6546,6 @@
       <c r="R56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
@@ -6849,13 +6592,6 @@
       <c r="R57" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="2" t="s">
@@ -6902,13 +6638,6 @@
       <c r="R58" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="2" t="s">
@@ -6955,13 +6684,6 @@
       <c r="R59" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="2" t="s">
@@ -7008,13 +6730,6 @@
       <c r="R60" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="10"/>
@@ -7035,13 +6750,6 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="10"/>
@@ -7064,13 +6772,6 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="12" t="s">
@@ -7093,15 +6794,8 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-    </row>
-    <row r="64" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="64" spans="1:25">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
@@ -7146,13 +6840,6 @@
       <c r="R64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2" t="s">
@@ -7199,13 +6886,6 @@
       <c r="R65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2" t="s">
@@ -7252,13 +6932,6 @@
       <c r="R66" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2" t="s">
@@ -7305,13 +6978,6 @@
       <c r="R67" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="2" t="s">
@@ -7358,13 +7024,6 @@
       <c r="R68" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2" t="s">
@@ -7411,13 +7070,6 @@
       <c r="R69" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="2" t="s">
@@ -7464,13 +7116,6 @@
       <c r="R70" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
@@ -7517,13 +7162,6 @@
       <c r="R71" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="2" t="s">
@@ -7570,13 +7208,6 @@
       <c r="R72" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="2" t="s">
@@ -7623,13 +7254,6 @@
       <c r="R73" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="10"/>
@@ -7650,13 +7274,6 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="12" t="s">
@@ -7679,15 +7296,8 @@
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-    </row>
-    <row r="76" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="76" spans="1:25">
       <c r="A76" s="4" t="s">
         <v>30</v>
       </c>
@@ -7732,13 +7342,6 @@
       <c r="R76" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2" t="s">
@@ -7785,13 +7388,6 @@
       <c r="R77" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="2" t="s">
@@ -7838,13 +7434,6 @@
       <c r="R78" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="2" t="s">
@@ -7891,13 +7480,6 @@
       <c r="R79" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="2" t="s">
@@ -7944,13 +7526,6 @@
       <c r="R80" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="2" t="s">
@@ -7997,13 +7572,6 @@
       <c r="R81" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="2" t="s">
@@ -8050,13 +7618,6 @@
       <c r="R82" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="2" t="s">
@@ -8103,13 +7664,6 @@
       <c r="R83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="2" t="s">
@@ -8156,13 +7710,6 @@
       <c r="R84" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
@@ -8209,13 +7756,6 @@
       <c r="R85" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="2" t="s">
@@ -8262,13 +7802,6 @@
       <c r="R86" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="10"/>
@@ -8289,13 +7822,6 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -8318,15 +7844,8 @@
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
-    </row>
-    <row r="89" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="89" spans="1:25">
       <c r="A89" s="4" t="s">
         <v>30</v>
       </c>
@@ -8371,13 +7890,6 @@
       <c r="R89" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="2" t="s">
@@ -8424,13 +7936,6 @@
       <c r="R90" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="2" t="s">
@@ -8477,13 +7982,6 @@
       <c r="R91" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2" t="s">
@@ -8530,15 +8028,8 @@
       <c r="R92" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-    </row>
-    <row r="93" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="93" spans="1:25">
       <c r="A93" s="2" t="s">
         <v>427</v>
       </c>
@@ -8583,13 +8074,6 @@
       <c r="R93" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="2" t="s">
@@ -8636,13 +8120,6 @@
       <c r="R94" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="10"/>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2" t="s">
@@ -8689,13 +8166,6 @@
       <c r="R95" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S95" s="10"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="10"/>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2" t="s">
@@ -8742,13 +8212,6 @@
       <c r="R96" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S96" s="10"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="10"/>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="2" t="s">
@@ -8795,13 +8258,6 @@
       <c r="R97" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="S97" s="10"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-      <c r="X97" s="10"/>
-      <c r="Y97" s="10"/>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="2" t="s">
@@ -8848,13 +8304,6 @@
       <c r="R98" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="S98" s="10"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-      <c r="X98" s="10"/>
-      <c r="Y98" s="10"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2" t="s">
@@ -8901,13 +8350,6 @@
       <c r="R99" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="2" t="s">
@@ -8954,13 +8396,6 @@
       <c r="R100" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="2" t="s">
@@ -9007,13 +8442,6 @@
       <c r="R101" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="2" t="s">
@@ -9060,13 +8488,6 @@
       <c r="R102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="2" t="s">
@@ -9113,13 +8534,6 @@
       <c r="R103" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
-      <c r="X103" s="10"/>
-      <c r="Y103" s="10"/>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="10"/>
@@ -9142,13 +8556,6 @@
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15"/>
-      <c r="U104" s="15"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="12" t="s">
@@ -9171,15 +8578,8 @@
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-    </row>
-    <row r="106" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="106" spans="1:25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -9224,13 +8624,6 @@
       <c r="R106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2" t="s">
@@ -9277,13 +8670,6 @@
       <c r="R107" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2" t="s">
@@ -9330,13 +8716,6 @@
       <c r="R108" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2" t="s">
@@ -9383,13 +8762,6 @@
       <c r="R109" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="2" t="s">
@@ -9436,13 +8808,6 @@
       <c r="R110" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2" t="s">
@@ -9489,15 +8854,8 @@
       <c r="R111" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S111" s="10"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="10"/>
-      <c r="W111" s="10"/>
-      <c r="X111" s="10"/>
-      <c r="Y111" s="10"/>
-    </row>
-    <row r="112" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="112" spans="1:25">
       <c r="A112" s="2" t="s">
         <v>497</v>
       </c>
@@ -9542,13 +8900,6 @@
       <c r="R112" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="S112" s="10"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="10"/>
-      <c r="Y112" s="10"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
@@ -9595,13 +8946,6 @@
       <c r="R113" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="10"/>
-      <c r="Y113" s="10"/>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="2" t="s">
@@ -9648,13 +8992,6 @@
       <c r="R114" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S114" s="10"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="10"/>
-      <c r="W114" s="10"/>
-      <c r="X114" s="10"/>
-      <c r="Y114" s="10"/>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="2" t="s">
@@ -9701,13 +9038,6 @@
       <c r="R115" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S115" s="10"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="10"/>
-      <c r="W115" s="10"/>
-      <c r="X115" s="10"/>
-      <c r="Y115" s="10"/>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="10"/>
@@ -9728,13 +9058,6 @@
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
-      <c r="S116" s="10"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="10"/>
-      <c r="W116" s="10"/>
-      <c r="X116" s="10"/>
-      <c r="Y116" s="10"/>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="12" t="s">
@@ -9757,15 +9080,8 @@
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-    </row>
-    <row r="118" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="118" spans="1:25">
       <c r="A118" s="4" t="s">
         <v>30</v>
       </c>
@@ -9810,13 +9126,6 @@
       <c r="R118" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S118" s="10"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-      <c r="X118" s="10"/>
-      <c r="Y118" s="10"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
@@ -9863,13 +9172,6 @@
       <c r="R119" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="S119" s="10"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="10"/>
-      <c r="W119" s="10"/>
-      <c r="X119" s="10"/>
-      <c r="Y119" s="10"/>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="2" t="s">
@@ -9916,15 +9218,8 @@
       <c r="R120" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="S120" s="10"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="10"/>
-      <c r="W120" s="10"/>
-      <c r="X120" s="10"/>
-      <c r="Y120" s="10"/>
-    </row>
-    <row r="121" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="121" spans="1:25">
       <c r="A121" s="2" t="s">
         <v>519</v>
       </c>
@@ -9969,13 +9264,6 @@
       <c r="R121" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="S121" s="10"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
-      <c r="V121" s="10"/>
-      <c r="W121" s="10"/>
-      <c r="X121" s="10"/>
-      <c r="Y121" s="10"/>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="2" t="s">
@@ -10022,13 +9310,6 @@
       <c r="R122" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="S122" s="10"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="10"/>
-      <c r="V122" s="10"/>
-      <c r="W122" s="10"/>
-      <c r="X122" s="10"/>
-      <c r="Y122" s="10"/>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="2" t="s">
@@ -10075,13 +9356,6 @@
       <c r="R123" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S123" s="10"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="10"/>
-      <c r="V123" s="10"/>
-      <c r="W123" s="10"/>
-      <c r="X123" s="10"/>
-      <c r="Y123" s="10"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2" t="s">
@@ -10128,13 +9402,6 @@
       <c r="R124" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S124" s="10"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="10"/>
-      <c r="W124" s="10"/>
-      <c r="X124" s="10"/>
-      <c r="Y124" s="10"/>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="2" t="s">
@@ -10181,13 +9448,6 @@
       <c r="R125" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S125" s="10"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="10"/>
-      <c r="W125" s="10"/>
-      <c r="X125" s="10"/>
-      <c r="Y125" s="10"/>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
@@ -10234,13 +9494,6 @@
       <c r="R126" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S126" s="10"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="10"/>
-      <c r="W126" s="10"/>
-      <c r="X126" s="10"/>
-      <c r="Y126" s="10"/>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="2" t="s">
@@ -10287,13 +9540,6 @@
       <c r="R127" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S127" s="10"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="10"/>
-      <c r="W127" s="10"/>
-      <c r="X127" s="10"/>
-      <c r="Y127" s="10"/>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="10"/>
@@ -10314,13 +9560,6 @@
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
-      <c r="S128" s="10"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="10"/>
-      <c r="V128" s="10"/>
-      <c r="W128" s="10"/>
-      <c r="X128" s="10"/>
-      <c r="Y128" s="10"/>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="12" t="s">
@@ -10343,15 +9582,8 @@
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
       <c r="R129" s="12"/>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="U129" s="12"/>
-      <c r="V129" s="12"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
-    </row>
-    <row r="130" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="130" spans="1:25">
       <c r="A130" s="4" t="s">
         <v>30</v>
       </c>
@@ -10396,13 +9628,6 @@
       <c r="R130" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="10"/>
-      <c r="V130" s="10"/>
-      <c r="W130" s="10"/>
-      <c r="X130" s="10"/>
-      <c r="Y130" s="10"/>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="2" t="s">
@@ -10449,13 +9674,6 @@
       <c r="R131" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
-      <c r="X131" s="10"/>
-      <c r="Y131" s="10"/>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2" t="s">
@@ -10502,13 +9720,6 @@
       <c r="R132" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="10"/>
-      <c r="V132" s="10"/>
-      <c r="W132" s="10"/>
-      <c r="X132" s="10"/>
-      <c r="Y132" s="10"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2" t="s">
@@ -10555,13 +9766,6 @@
       <c r="R133" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="10"/>
-      <c r="V133" s="10"/>
-      <c r="W133" s="10"/>
-      <c r="X133" s="10"/>
-      <c r="Y133" s="10"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2" t="s">
@@ -10608,15 +9812,8 @@
       <c r="R134" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="S134" s="10"/>
-      <c r="T134" s="10"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="10"/>
-      <c r="W134" s="10"/>
-      <c r="X134" s="10"/>
-      <c r="Y134" s="10"/>
-    </row>
-    <row r="135" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="135" spans="1:25">
       <c r="A135" s="2" t="s">
         <v>570</v>
       </c>
@@ -10661,13 +9858,6 @@
       <c r="R135" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="S135" s="10"/>
-      <c r="T135" s="10"/>
-      <c r="U135" s="10"/>
-      <c r="V135" s="10"/>
-      <c r="W135" s="10"/>
-      <c r="X135" s="10"/>
-      <c r="Y135" s="10"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
@@ -10714,13 +9904,6 @@
       <c r="R136" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="S136" s="10"/>
-      <c r="T136" s="10"/>
-      <c r="U136" s="10"/>
-      <c r="V136" s="10"/>
-      <c r="W136" s="10"/>
-      <c r="X136" s="10"/>
-      <c r="Y136" s="10"/>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2" t="s">
@@ -10767,13 +9950,6 @@
       <c r="R137" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="S137" s="10"/>
-      <c r="T137" s="10"/>
-      <c r="U137" s="10"/>
-      <c r="V137" s="10"/>
-      <c r="W137" s="10"/>
-      <c r="X137" s="10"/>
-      <c r="Y137" s="10"/>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2" t="s">
@@ -10820,13 +9996,6 @@
       <c r="R138" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="S138" s="10"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="10"/>
-      <c r="W138" s="10"/>
-      <c r="X138" s="10"/>
-      <c r="Y138" s="10"/>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="2" t="s">
@@ -10873,13 +10042,6 @@
       <c r="R139" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="S139" s="10"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="10"/>
-      <c r="W139" s="10"/>
-      <c r="X139" s="10"/>
-      <c r="Y139" s="10"/>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
@@ -10926,13 +10088,6 @@
       <c r="R140" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S140" s="10"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="10"/>
-      <c r="W140" s="10"/>
-      <c r="X140" s="10"/>
-      <c r="Y140" s="10"/>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2" t="s">
@@ -10979,13 +10134,6 @@
       <c r="R141" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="S141" s="10"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="10"/>
-      <c r="W141" s="10"/>
-      <c r="X141" s="10"/>
-      <c r="Y141" s="10"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="2" t="s">
@@ -11032,13 +10180,6 @@
       <c r="R142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S142" s="10"/>
-      <c r="T142" s="10"/>
-      <c r="U142" s="10"/>
-      <c r="V142" s="10"/>
-      <c r="W142" s="10"/>
-      <c r="X142" s="10"/>
-      <c r="Y142" s="10"/>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="2" t="s">
@@ -11085,13 +10226,6 @@
       <c r="R143" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S143" s="10"/>
-      <c r="T143" s="10"/>
-      <c r="U143" s="10"/>
-      <c r="V143" s="10"/>
-      <c r="W143" s="10"/>
-      <c r="X143" s="10"/>
-      <c r="Y143" s="10"/>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="2" t="s">
@@ -11138,13 +10272,6 @@
       <c r="R144" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S144" s="10"/>
-      <c r="T144" s="10"/>
-      <c r="U144" s="10"/>
-      <c r="V144" s="10"/>
-      <c r="W144" s="10"/>
-      <c r="X144" s="10"/>
-      <c r="Y144" s="10"/>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="2" t="s">
@@ -11191,13 +10318,6 @@
       <c r="R145" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S145" s="10"/>
-      <c r="T145" s="10"/>
-      <c r="U145" s="10"/>
-      <c r="V145" s="10"/>
-      <c r="W145" s="10"/>
-      <c r="X145" s="10"/>
-      <c r="Y145" s="10"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="10"/>
@@ -11218,13 +10338,6 @@
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
       <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="10"/>
-      <c r="U146" s="10"/>
-      <c r="V146" s="10"/>
-      <c r="W146" s="10"/>
-      <c r="X146" s="10"/>
-      <c r="Y146" s="10"/>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="10"/>
@@ -11247,13 +10360,6 @@
       <c r="P147" s="15"/>
       <c r="Q147" s="15"/>
       <c r="R147" s="15"/>
-      <c r="S147" s="15"/>
-      <c r="T147" s="15"/>
-      <c r="U147" s="15"/>
-      <c r="V147" s="10"/>
-      <c r="W147" s="10"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="12" t="s">
@@ -11276,15 +10382,8 @@
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
       <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
-      <c r="U148" s="12"/>
-      <c r="V148" s="12"/>
-      <c r="W148" s="12"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-    </row>
-    <row r="149" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="149" spans="1:25">
       <c r="A149" s="4" t="s">
         <v>30</v>
       </c>
@@ -11329,13 +10428,6 @@
       <c r="R149" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="10"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-      <c r="X149" s="10"/>
-      <c r="Y149" s="10"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2" t="s">
@@ -11382,13 +10474,6 @@
       <c r="R150" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S150" s="10"/>
-      <c r="T150" s="10"/>
-      <c r="U150" s="10"/>
-      <c r="V150" s="10"/>
-      <c r="W150" s="10"/>
-      <c r="X150" s="10"/>
-      <c r="Y150" s="10"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2" t="s">
@@ -11435,13 +10520,6 @@
       <c r="R151" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-      <c r="U151" s="10"/>
-      <c r="V151" s="10"/>
-      <c r="W151" s="10"/>
-      <c r="X151" s="10"/>
-      <c r="Y151" s="10"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2" t="s">
@@ -11488,13 +10566,6 @@
       <c r="R152" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S152" s="10"/>
-      <c r="T152" s="10"/>
-      <c r="U152" s="10"/>
-      <c r="V152" s="10"/>
-      <c r="W152" s="10"/>
-      <c r="X152" s="10"/>
-      <c r="Y152" s="10"/>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="2" t="s">
@@ -11541,13 +10612,6 @@
       <c r="R153" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="S153" s="10"/>
-      <c r="T153" s="10"/>
-      <c r="U153" s="10"/>
-      <c r="V153" s="10"/>
-      <c r="W153" s="10"/>
-      <c r="X153" s="10"/>
-      <c r="Y153" s="10"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="2" t="s">
@@ -11594,13 +10658,6 @@
       <c r="R154" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S154" s="10"/>
-      <c r="T154" s="10"/>
-      <c r="U154" s="10"/>
-      <c r="V154" s="10"/>
-      <c r="W154" s="10"/>
-      <c r="X154" s="10"/>
-      <c r="Y154" s="10"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="2" t="s">
@@ -11647,13 +10704,6 @@
       <c r="R155" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="S155" s="10"/>
-      <c r="T155" s="10"/>
-      <c r="U155" s="10"/>
-      <c r="V155" s="10"/>
-      <c r="W155" s="10"/>
-      <c r="X155" s="10"/>
-      <c r="Y155" s="10"/>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="2" t="s">
@@ -11700,13 +10750,6 @@
       <c r="R156" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-      <c r="U156" s="10"/>
-      <c r="V156" s="10"/>
-      <c r="W156" s="10"/>
-      <c r="X156" s="10"/>
-      <c r="Y156" s="10"/>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="2" t="s">
@@ -11753,13 +10796,6 @@
       <c r="R157" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S157" s="10"/>
-      <c r="T157" s="10"/>
-      <c r="U157" s="10"/>
-      <c r="V157" s="10"/>
-      <c r="W157" s="10"/>
-      <c r="X157" s="10"/>
-      <c r="Y157" s="10"/>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="2" t="s">
@@ -11806,13 +10842,6 @@
       <c r="R158" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S158" s="10"/>
-      <c r="T158" s="10"/>
-      <c r="U158" s="10"/>
-      <c r="V158" s="10"/>
-      <c r="W158" s="10"/>
-      <c r="X158" s="10"/>
-      <c r="Y158" s="10"/>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="10"/>
@@ -11833,13 +10862,6 @@
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
       <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
-      <c r="T159" s="10"/>
-      <c r="U159" s="10"/>
-      <c r="V159" s="10"/>
-      <c r="W159" s="10"/>
-      <c r="X159" s="10"/>
-      <c r="Y159" s="10"/>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="12" t="s">
@@ -11862,15 +10884,8 @@
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
       <c r="R160" s="12"/>
-      <c r="S160" s="12"/>
-      <c r="T160" s="12"/>
-      <c r="U160" s="12"/>
-      <c r="V160" s="12"/>
-      <c r="W160" s="12"/>
-      <c r="X160" s="12"/>
-      <c r="Y160" s="12"/>
-    </row>
-    <row r="161" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="161" spans="1:25">
       <c r="A161" s="4" t="s">
         <v>30</v>
       </c>
@@ -11915,13 +10930,6 @@
       <c r="R161" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S161" s="10"/>
-      <c r="T161" s="10"/>
-      <c r="U161" s="10"/>
-      <c r="V161" s="10"/>
-      <c r="W161" s="10"/>
-      <c r="X161" s="10"/>
-      <c r="Y161" s="10"/>
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="2" t="s">
@@ -11968,13 +10976,6 @@
       <c r="R162" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="S162" s="10"/>
-      <c r="T162" s="10"/>
-      <c r="U162" s="10"/>
-      <c r="V162" s="10"/>
-      <c r="W162" s="10"/>
-      <c r="X162" s="10"/>
-      <c r="Y162" s="10"/>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="2" t="s">
@@ -12021,13 +11022,6 @@
       <c r="R163" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="S163" s="10"/>
-      <c r="T163" s="10"/>
-      <c r="U163" s="10"/>
-      <c r="V163" s="10"/>
-      <c r="W163" s="10"/>
-      <c r="X163" s="10"/>
-      <c r="Y163" s="10"/>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="2" t="s">
@@ -12074,13 +11068,6 @@
       <c r="R164" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="10"/>
-      <c r="Y164" s="10"/>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="2" t="s">
@@ -12127,13 +11114,6 @@
       <c r="R165" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-      <c r="X165" s="10"/>
-      <c r="Y165" s="10"/>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="2" t="s">
@@ -12180,13 +11160,6 @@
       <c r="R166" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-      <c r="X166" s="10"/>
-      <c r="Y166" s="10"/>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="2" t="s">
@@ -12233,13 +11206,6 @@
       <c r="R167" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-      <c r="U167" s="10"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-      <c r="X167" s="10"/>
-      <c r="Y167" s="10"/>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="2" t="s">
@@ -12286,13 +11252,6 @@
       <c r="R168" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-      <c r="U168" s="10"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
-      <c r="X168" s="10"/>
-      <c r="Y168" s="10"/>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="2" t="s">
@@ -12339,13 +11298,6 @@
       <c r="R169" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S169" s="10"/>
-      <c r="T169" s="10"/>
-      <c r="U169" s="10"/>
-      <c r="V169" s="10"/>
-      <c r="W169" s="10"/>
-      <c r="X169" s="10"/>
-      <c r="Y169" s="10"/>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="2" t="s">
@@ -12392,13 +11344,6 @@
       <c r="R170" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S170" s="10"/>
-      <c r="T170" s="10"/>
-      <c r="U170" s="10"/>
-      <c r="V170" s="10"/>
-      <c r="W170" s="10"/>
-      <c r="X170" s="10"/>
-      <c r="Y170" s="10"/>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="10"/>
@@ -12419,13 +11364,6 @@
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
       <c r="R171" s="10"/>
-      <c r="S171" s="10"/>
-      <c r="T171" s="10"/>
-      <c r="U171" s="10"/>
-      <c r="V171" s="10"/>
-      <c r="W171" s="10"/>
-      <c r="X171" s="10"/>
-      <c r="Y171" s="10"/>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="12" t="s">
@@ -12448,15 +11386,8 @@
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
       <c r="R172" s="12"/>
-      <c r="S172" s="12"/>
-      <c r="T172" s="12"/>
-      <c r="U172" s="12"/>
-      <c r="V172" s="12"/>
-      <c r="W172" s="12"/>
-      <c r="X172" s="12"/>
-      <c r="Y172" s="12"/>
-    </row>
-    <row r="173" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="173" spans="1:25">
       <c r="A173" s="4" t="s">
         <v>30</v>
       </c>
@@ -12501,13 +11432,6 @@
       <c r="R173" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S173" s="10"/>
-      <c r="T173" s="10"/>
-      <c r="U173" s="10"/>
-      <c r="V173" s="10"/>
-      <c r="W173" s="10"/>
-      <c r="X173" s="10"/>
-      <c r="Y173" s="10"/>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="2" t="s">
@@ -12554,13 +11478,6 @@
       <c r="R174" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="S174" s="10"/>
-      <c r="T174" s="10"/>
-      <c r="U174" s="10"/>
-      <c r="V174" s="10"/>
-      <c r="W174" s="10"/>
-      <c r="X174" s="10"/>
-      <c r="Y174" s="10"/>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="2" t="s">
@@ -12607,13 +11524,6 @@
       <c r="R175" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="S175" s="10"/>
-      <c r="T175" s="10"/>
-      <c r="U175" s="10"/>
-      <c r="V175" s="10"/>
-      <c r="W175" s="10"/>
-      <c r="X175" s="10"/>
-      <c r="Y175" s="10"/>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="2" t="s">
@@ -12660,15 +11570,8 @@
       <c r="R176" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="S176" s="10"/>
-      <c r="T176" s="10"/>
-      <c r="U176" s="10"/>
-      <c r="V176" s="10"/>
-      <c r="W176" s="10"/>
-      <c r="X176" s="10"/>
-      <c r="Y176" s="10"/>
-    </row>
-    <row r="177" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="177" spans="1:25">
       <c r="A177" s="2" t="s">
         <v>710</v>
       </c>
@@ -12713,13 +11616,6 @@
       <c r="R177" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="S177" s="10"/>
-      <c r="T177" s="10"/>
-      <c r="U177" s="10"/>
-      <c r="V177" s="10"/>
-      <c r="W177" s="10"/>
-      <c r="X177" s="10"/>
-      <c r="Y177" s="10"/>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="2" t="s">
@@ -12766,13 +11662,6 @@
       <c r="R178" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="S178" s="10"/>
-      <c r="T178" s="10"/>
-      <c r="U178" s="10"/>
-      <c r="V178" s="10"/>
-      <c r="W178" s="10"/>
-      <c r="X178" s="10"/>
-      <c r="Y178" s="10"/>
     </row>
     <row r="179" spans="1:25">
       <c r="A179" s="2" t="s">
@@ -12819,13 +11708,6 @@
       <c r="R179" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S179" s="10"/>
-      <c r="T179" s="10"/>
-      <c r="U179" s="10"/>
-      <c r="V179" s="10"/>
-      <c r="W179" s="10"/>
-      <c r="X179" s="10"/>
-      <c r="Y179" s="10"/>
     </row>
     <row r="180" spans="1:25">
       <c r="A180" s="2" t="s">
@@ -12872,13 +11754,6 @@
       <c r="R180" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="S180" s="10"/>
-      <c r="T180" s="10"/>
-      <c r="U180" s="10"/>
-      <c r="V180" s="10"/>
-      <c r="W180" s="10"/>
-      <c r="X180" s="10"/>
-      <c r="Y180" s="10"/>
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="2" t="s">
@@ -12925,13 +11800,6 @@
       <c r="R181" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="S181" s="10"/>
-      <c r="T181" s="10"/>
-      <c r="U181" s="10"/>
-      <c r="V181" s="10"/>
-      <c r="W181" s="10"/>
-      <c r="X181" s="10"/>
-      <c r="Y181" s="10"/>
     </row>
     <row r="182" spans="1:25">
       <c r="A182" s="2" t="s">
@@ -12978,13 +11846,6 @@
       <c r="R182" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S182" s="10"/>
-      <c r="T182" s="10"/>
-      <c r="U182" s="10"/>
-      <c r="V182" s="10"/>
-      <c r="W182" s="10"/>
-      <c r="X182" s="10"/>
-      <c r="Y182" s="10"/>
     </row>
     <row r="183" spans="1:25">
       <c r="A183" s="2" t="s">
@@ -13031,13 +11892,6 @@
       <c r="R183" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="S183" s="10"/>
-      <c r="T183" s="10"/>
-      <c r="U183" s="10"/>
-      <c r="V183" s="10"/>
-      <c r="W183" s="10"/>
-      <c r="X183" s="10"/>
-      <c r="Y183" s="10"/>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="2" t="s">
@@ -13084,13 +11938,6 @@
       <c r="R184" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S184" s="10"/>
-      <c r="T184" s="10"/>
-      <c r="U184" s="10"/>
-      <c r="V184" s="10"/>
-      <c r="W184" s="10"/>
-      <c r="X184" s="10"/>
-      <c r="Y184" s="10"/>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="2" t="s">
@@ -13137,13 +11984,6 @@
       <c r="R185" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S185" s="10"/>
-      <c r="T185" s="10"/>
-      <c r="U185" s="10"/>
-      <c r="V185" s="10"/>
-      <c r="W185" s="10"/>
-      <c r="X185" s="10"/>
-      <c r="Y185" s="10"/>
     </row>
     <row r="186" spans="1:25">
       <c r="A186" s="2" t="s">
@@ -13190,13 +12030,6 @@
       <c r="R186" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S186" s="10"/>
-      <c r="T186" s="10"/>
-      <c r="U186" s="10"/>
-      <c r="V186" s="10"/>
-      <c r="W186" s="10"/>
-      <c r="X186" s="10"/>
-      <c r="Y186" s="10"/>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="10"/>
@@ -13217,13 +12050,6 @@
       <c r="P187" s="10"/>
       <c r="Q187" s="10"/>
       <c r="R187" s="10"/>
-      <c r="S187" s="10"/>
-      <c r="T187" s="10"/>
-      <c r="U187" s="10"/>
-      <c r="V187" s="10"/>
-      <c r="W187" s="10"/>
-      <c r="X187" s="10"/>
-      <c r="Y187" s="10"/>
     </row>
     <row r="188" spans="1:25">
       <c r="A188" s="10"/>
@@ -13246,13 +12072,6 @@
       <c r="P188" s="15"/>
       <c r="Q188" s="15"/>
       <c r="R188" s="15"/>
-      <c r="S188" s="15"/>
-      <c r="T188" s="15"/>
-      <c r="U188" s="15"/>
-      <c r="V188" s="10"/>
-      <c r="W188" s="10"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="12" t="s">
@@ -13275,15 +12094,8 @@
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
       <c r="R189" s="12"/>
-      <c r="S189" s="12"/>
-      <c r="T189" s="12"/>
-      <c r="U189" s="12"/>
-      <c r="V189" s="12"/>
-      <c r="W189" s="12"/>
-      <c r="X189" s="12"/>
-      <c r="Y189" s="12"/>
-    </row>
-    <row r="190" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="190" spans="1:25">
       <c r="A190" s="4" t="s">
         <v>30</v>
       </c>
@@ -13328,13 +12140,6 @@
       <c r="R190" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S190" s="10"/>
-      <c r="T190" s="10"/>
-      <c r="U190" s="10"/>
-      <c r="V190" s="10"/>
-      <c r="W190" s="10"/>
-      <c r="X190" s="10"/>
-      <c r="Y190" s="10"/>
     </row>
     <row r="191" spans="1:25">
       <c r="A191" s="2" t="s">
@@ -13381,13 +12186,6 @@
       <c r="R191" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S191" s="10"/>
-      <c r="T191" s="10"/>
-      <c r="U191" s="10"/>
-      <c r="V191" s="10"/>
-      <c r="W191" s="10"/>
-      <c r="X191" s="10"/>
-      <c r="Y191" s="10"/>
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="2" t="s">
@@ -13434,13 +12232,6 @@
       <c r="R192" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S192" s="10"/>
-      <c r="T192" s="10"/>
-      <c r="U192" s="10"/>
-      <c r="V192" s="10"/>
-      <c r="W192" s="10"/>
-      <c r="X192" s="10"/>
-      <c r="Y192" s="10"/>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="2" t="s">
@@ -13487,13 +12278,6 @@
       <c r="R193" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="S193" s="10"/>
-      <c r="T193" s="10"/>
-      <c r="U193" s="10"/>
-      <c r="V193" s="10"/>
-      <c r="W193" s="10"/>
-      <c r="X193" s="10"/>
-      <c r="Y193" s="10"/>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="2" t="s">
@@ -13540,13 +12324,6 @@
       <c r="R194" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="S194" s="10"/>
-      <c r="T194" s="10"/>
-      <c r="U194" s="10"/>
-      <c r="V194" s="10"/>
-      <c r="W194" s="10"/>
-      <c r="X194" s="10"/>
-      <c r="Y194" s="10"/>
     </row>
     <row r="195" spans="1:25">
       <c r="A195" s="2" t="s">
@@ -13593,13 +12370,6 @@
       <c r="R195" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-      <c r="U195" s="10"/>
-      <c r="V195" s="10"/>
-      <c r="W195" s="10"/>
-      <c r="X195" s="10"/>
-      <c r="Y195" s="10"/>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="2" t="s">
@@ -13646,13 +12416,6 @@
       <c r="R196" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="S196" s="10"/>
-      <c r="T196" s="10"/>
-      <c r="U196" s="10"/>
-      <c r="V196" s="10"/>
-      <c r="W196" s="10"/>
-      <c r="X196" s="10"/>
-      <c r="Y196" s="10"/>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="2" t="s">
@@ -13699,13 +12462,6 @@
       <c r="R197" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S197" s="10"/>
-      <c r="T197" s="10"/>
-      <c r="U197" s="10"/>
-      <c r="V197" s="10"/>
-      <c r="W197" s="10"/>
-      <c r="X197" s="10"/>
-      <c r="Y197" s="10"/>
     </row>
     <row r="198" spans="1:25">
       <c r="A198" s="2" t="s">
@@ -13752,13 +12508,6 @@
       <c r="R198" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S198" s="10"/>
-      <c r="T198" s="10"/>
-      <c r="U198" s="10"/>
-      <c r="V198" s="10"/>
-      <c r="W198" s="10"/>
-      <c r="X198" s="10"/>
-      <c r="Y198" s="10"/>
     </row>
     <row r="199" spans="1:25">
       <c r="A199" s="2" t="s">
@@ -13805,13 +12554,6 @@
       <c r="R199" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S199" s="10"/>
-      <c r="T199" s="10"/>
-      <c r="U199" s="10"/>
-      <c r="V199" s="10"/>
-      <c r="W199" s="10"/>
-      <c r="X199" s="10"/>
-      <c r="Y199" s="10"/>
     </row>
     <row r="200" spans="1:25">
       <c r="A200" s="10"/>
@@ -13832,13 +12574,6 @@
       <c r="P200" s="10"/>
       <c r="Q200" s="10"/>
       <c r="R200" s="10"/>
-      <c r="S200" s="10"/>
-      <c r="T200" s="10"/>
-      <c r="U200" s="10"/>
-      <c r="V200" s="10"/>
-      <c r="W200" s="10"/>
-      <c r="X200" s="10"/>
-      <c r="Y200" s="10"/>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="12" t="s">
@@ -13861,15 +12596,8 @@
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
       <c r="R201" s="12"/>
-      <c r="S201" s="12"/>
-      <c r="T201" s="12"/>
-      <c r="U201" s="12"/>
-      <c r="V201" s="12"/>
-      <c r="W201" s="12"/>
-      <c r="X201" s="12"/>
-      <c r="Y201" s="12"/>
-    </row>
-    <row r="202" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="202" spans="1:25">
       <c r="A202" s="4" t="s">
         <v>30</v>
       </c>
@@ -13914,13 +12642,6 @@
       <c r="R202" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S202" s="10"/>
-      <c r="T202" s="10"/>
-      <c r="U202" s="10"/>
-      <c r="V202" s="10"/>
-      <c r="W202" s="10"/>
-      <c r="X202" s="10"/>
-      <c r="Y202" s="10"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="2" t="s">
@@ -13967,15 +12688,8 @@
       <c r="R203" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="S203" s="10"/>
-      <c r="T203" s="10"/>
-      <c r="U203" s="10"/>
-      <c r="V203" s="10"/>
-      <c r="W203" s="10"/>
-      <c r="X203" s="10"/>
-      <c r="Y203" s="10"/>
-    </row>
-    <row r="204" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="204" spans="1:25">
       <c r="A204" s="2" t="s">
         <v>769</v>
       </c>
@@ -14020,13 +12734,6 @@
       <c r="R204" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="S204" s="10"/>
-      <c r="T204" s="10"/>
-      <c r="U204" s="10"/>
-      <c r="V204" s="10"/>
-      <c r="W204" s="10"/>
-      <c r="X204" s="10"/>
-      <c r="Y204" s="10"/>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" s="2" t="s">
@@ -14073,13 +12780,6 @@
       <c r="R205" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="S205" s="10"/>
-      <c r="T205" s="10"/>
-      <c r="U205" s="10"/>
-      <c r="V205" s="10"/>
-      <c r="W205" s="10"/>
-      <c r="X205" s="10"/>
-      <c r="Y205" s="10"/>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="2" t="s">
@@ -14126,13 +12826,6 @@
       <c r="R206" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="S206" s="10"/>
-      <c r="T206" s="10"/>
-      <c r="U206" s="10"/>
-      <c r="V206" s="10"/>
-      <c r="W206" s="10"/>
-      <c r="X206" s="10"/>
-      <c r="Y206" s="10"/>
     </row>
     <row r="207" spans="1:25">
       <c r="A207" s="2" t="s">
@@ -14179,13 +12872,6 @@
       <c r="R207" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="S207" s="10"/>
-      <c r="T207" s="10"/>
-      <c r="U207" s="10"/>
-      <c r="V207" s="10"/>
-      <c r="W207" s="10"/>
-      <c r="X207" s="10"/>
-      <c r="Y207" s="10"/>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" s="2" t="s">
@@ -14232,13 +12918,6 @@
       <c r="R208" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="S208" s="10"/>
-      <c r="T208" s="10"/>
-      <c r="U208" s="10"/>
-      <c r="V208" s="10"/>
-      <c r="W208" s="10"/>
-      <c r="X208" s="10"/>
-      <c r="Y208" s="10"/>
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="2" t="s">
@@ -14285,13 +12964,6 @@
       <c r="R209" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S209" s="10"/>
-      <c r="T209" s="10"/>
-      <c r="U209" s="10"/>
-      <c r="V209" s="10"/>
-      <c r="W209" s="10"/>
-      <c r="X209" s="10"/>
-      <c r="Y209" s="10"/>
     </row>
     <row r="210" spans="1:25">
       <c r="A210" s="2" t="s">
@@ -14338,13 +13010,6 @@
       <c r="R210" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S210" s="10"/>
-      <c r="T210" s="10"/>
-      <c r="U210" s="10"/>
-      <c r="V210" s="10"/>
-      <c r="W210" s="10"/>
-      <c r="X210" s="10"/>
-      <c r="Y210" s="10"/>
     </row>
     <row r="211" spans="1:25">
       <c r="A211" s="2" t="s">
@@ -14391,13 +13056,6 @@
       <c r="R211" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S211" s="10"/>
-      <c r="T211" s="10"/>
-      <c r="U211" s="10"/>
-      <c r="V211" s="10"/>
-      <c r="W211" s="10"/>
-      <c r="X211" s="10"/>
-      <c r="Y211" s="10"/>
     </row>
     <row r="212" spans="1:25">
       <c r="A212" s="10"/>
@@ -14418,13 +13076,6 @@
       <c r="P212" s="10"/>
       <c r="Q212" s="10"/>
       <c r="R212" s="10"/>
-      <c r="S212" s="10"/>
-      <c r="T212" s="10"/>
-      <c r="U212" s="10"/>
-      <c r="V212" s="10"/>
-      <c r="W212" s="10"/>
-      <c r="X212" s="10"/>
-      <c r="Y212" s="10"/>
     </row>
     <row r="213" spans="1:25">
       <c r="A213" s="12" t="s">
@@ -14447,15 +13098,8 @@
       <c r="P213" s="12"/>
       <c r="Q213" s="12"/>
       <c r="R213" s="12"/>
-      <c r="S213" s="12"/>
-      <c r="T213" s="12"/>
-      <c r="U213" s="12"/>
-      <c r="V213" s="12"/>
-      <c r="W213" s="12"/>
-      <c r="X213" s="12"/>
-      <c r="Y213" s="12"/>
-    </row>
-    <row r="214" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="214" spans="1:25">
       <c r="A214" s="4" t="s">
         <v>30</v>
       </c>
@@ -14500,13 +13144,6 @@
       <c r="R214" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S214" s="10"/>
-      <c r="T214" s="10"/>
-      <c r="U214" s="10"/>
-      <c r="V214" s="10"/>
-      <c r="W214" s="10"/>
-      <c r="X214" s="10"/>
-      <c r="Y214" s="10"/>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="2" t="s">
@@ -14553,15 +13190,8 @@
       <c r="R215" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-      <c r="V215" s="10"/>
-      <c r="W215" s="10"/>
-      <c r="X215" s="10"/>
-      <c r="Y215" s="10"/>
-    </row>
-    <row r="216" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="216" spans="1:25">
       <c r="A216" s="2" t="s">
         <v>810</v>
       </c>
@@ -14606,15 +13236,8 @@
       <c r="R216" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
-      <c r="U216" s="10"/>
-      <c r="V216" s="10"/>
-      <c r="W216" s="10"/>
-      <c r="X216" s="10"/>
-      <c r="Y216" s="10"/>
-    </row>
-    <row r="217" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="217" spans="1:25">
       <c r="A217" s="2" t="s">
         <v>815</v>
       </c>
@@ -14659,13 +13282,6 @@
       <c r="R217" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="S217" s="10"/>
-      <c r="T217" s="10"/>
-      <c r="U217" s="10"/>
-      <c r="V217" s="10"/>
-      <c r="W217" s="10"/>
-      <c r="X217" s="10"/>
-      <c r="Y217" s="10"/>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="2" t="s">
@@ -14712,13 +13328,6 @@
       <c r="R218" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="S218" s="10"/>
-      <c r="T218" s="10"/>
-      <c r="U218" s="10"/>
-      <c r="V218" s="10"/>
-      <c r="W218" s="10"/>
-      <c r="X218" s="10"/>
-      <c r="Y218" s="10"/>
     </row>
     <row r="219" spans="1:25">
       <c r="A219" s="2" t="s">
@@ -14765,13 +13374,6 @@
       <c r="R219" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="S219" s="10"/>
-      <c r="T219" s="10"/>
-      <c r="U219" s="10"/>
-      <c r="V219" s="10"/>
-      <c r="W219" s="10"/>
-      <c r="X219" s="10"/>
-      <c r="Y219" s="10"/>
     </row>
     <row r="220" spans="1:25">
       <c r="A220" s="2" t="s">
@@ -14818,13 +13420,6 @@
       <c r="R220" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="S220" s="10"/>
-      <c r="T220" s="10"/>
-      <c r="U220" s="10"/>
-      <c r="V220" s="10"/>
-      <c r="W220" s="10"/>
-      <c r="X220" s="10"/>
-      <c r="Y220" s="10"/>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="2" t="s">
@@ -14871,13 +13466,6 @@
       <c r="R221" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="S221" s="10"/>
-      <c r="T221" s="10"/>
-      <c r="U221" s="10"/>
-      <c r="V221" s="10"/>
-      <c r="W221" s="10"/>
-      <c r="X221" s="10"/>
-      <c r="Y221" s="10"/>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" s="2" t="s">
@@ -14924,13 +13512,6 @@
       <c r="R222" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="S222" s="10"/>
-      <c r="T222" s="10"/>
-      <c r="U222" s="10"/>
-      <c r="V222" s="10"/>
-      <c r="W222" s="10"/>
-      <c r="X222" s="10"/>
-      <c r="Y222" s="10"/>
     </row>
     <row r="223" spans="1:25">
       <c r="A223" s="2" t="s">
@@ -14977,13 +13558,6 @@
       <c r="R223" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="S223" s="10"/>
-      <c r="T223" s="10"/>
-      <c r="U223" s="10"/>
-      <c r="V223" s="10"/>
-      <c r="W223" s="10"/>
-      <c r="X223" s="10"/>
-      <c r="Y223" s="10"/>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" s="2" t="s">
@@ -15030,13 +13604,6 @@
       <c r="R224" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="S224" s="10"/>
-      <c r="T224" s="10"/>
-      <c r="U224" s="10"/>
-      <c r="V224" s="10"/>
-      <c r="W224" s="10"/>
-      <c r="X224" s="10"/>
-      <c r="Y224" s="10"/>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" s="2" t="s">
@@ -15083,13 +13650,6 @@
       <c r="R225" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="S225" s="10"/>
-      <c r="T225" s="10"/>
-      <c r="U225" s="10"/>
-      <c r="V225" s="10"/>
-      <c r="W225" s="10"/>
-      <c r="X225" s="10"/>
-      <c r="Y225" s="10"/>
     </row>
     <row r="226" spans="1:25">
       <c r="A226" s="2" t="s">
@@ -15136,13 +13696,6 @@
       <c r="R226" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="S226" s="10"/>
-      <c r="T226" s="10"/>
-      <c r="U226" s="10"/>
-      <c r="V226" s="10"/>
-      <c r="W226" s="10"/>
-      <c r="X226" s="10"/>
-      <c r="Y226" s="10"/>
     </row>
     <row r="227" spans="1:25">
       <c r="A227" s="2" t="s">
@@ -15189,13 +13742,6 @@
       <c r="R227" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S227" s="10"/>
-      <c r="T227" s="10"/>
-      <c r="U227" s="10"/>
-      <c r="V227" s="10"/>
-      <c r="W227" s="10"/>
-      <c r="X227" s="10"/>
-      <c r="Y227" s="10"/>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" s="2" t="s">
@@ -15242,13 +13788,6 @@
       <c r="R228" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S228" s="10"/>
-      <c r="T228" s="10"/>
-      <c r="U228" s="10"/>
-      <c r="V228" s="10"/>
-      <c r="W228" s="10"/>
-      <c r="X228" s="10"/>
-      <c r="Y228" s="10"/>
     </row>
     <row r="229" spans="1:25">
       <c r="A229" s="2" t="s">
@@ -15295,13 +13834,6 @@
       <c r="R229" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S229" s="10"/>
-      <c r="T229" s="10"/>
-      <c r="U229" s="10"/>
-      <c r="V229" s="10"/>
-      <c r="W229" s="10"/>
-      <c r="X229" s="10"/>
-      <c r="Y229" s="10"/>
     </row>
     <row r="230" spans="1:25">
       <c r="A230" s="10"/>
@@ -15322,13 +13854,6 @@
       <c r="P230" s="10"/>
       <c r="Q230" s="10"/>
       <c r="R230" s="10"/>
-      <c r="S230" s="10"/>
-      <c r="T230" s="10"/>
-      <c r="U230" s="10"/>
-      <c r="V230" s="10"/>
-      <c r="W230" s="10"/>
-      <c r="X230" s="10"/>
-      <c r="Y230" s="10"/>
     </row>
     <row r="231" spans="1:25">
       <c r="A231" s="10"/>
@@ -15351,13 +13876,6 @@
       <c r="P231" s="15"/>
       <c r="Q231" s="15"/>
       <c r="R231" s="15"/>
-      <c r="S231" s="15"/>
-      <c r="T231" s="15"/>
-      <c r="U231" s="15"/>
-      <c r="V231" s="10"/>
-      <c r="W231" s="10"/>
-      <c r="X231" s="3"/>
-      <c r="Y231" s="3"/>
     </row>
     <row r="232" spans="1:25">
       <c r="A232" s="12" t="s">
@@ -15380,15 +13898,8 @@
       <c r="P232" s="12"/>
       <c r="Q232" s="12"/>
       <c r="R232" s="12"/>
-      <c r="S232" s="12"/>
-      <c r="T232" s="12"/>
-      <c r="U232" s="12"/>
-      <c r="V232" s="12"/>
-      <c r="W232" s="12"/>
-      <c r="X232" s="12"/>
-      <c r="Y232" s="12"/>
-    </row>
-    <row r="233" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="233" spans="1:25">
       <c r="A233" s="4" t="s">
         <v>30</v>
       </c>
@@ -15433,13 +13944,6 @@
       <c r="R233" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S233" s="10"/>
-      <c r="T233" s="10"/>
-      <c r="U233" s="10"/>
-      <c r="V233" s="10"/>
-      <c r="W233" s="10"/>
-      <c r="X233" s="10"/>
-      <c r="Y233" s="10"/>
     </row>
     <row r="234" spans="1:25">
       <c r="A234" s="2" t="s">
@@ -15486,13 +13990,6 @@
       <c r="R234" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S234" s="10"/>
-      <c r="T234" s="10"/>
-      <c r="U234" s="10"/>
-      <c r="V234" s="10"/>
-      <c r="W234" s="10"/>
-      <c r="X234" s="10"/>
-      <c r="Y234" s="10"/>
     </row>
     <row r="235" spans="1:25">
       <c r="A235" s="2" t="s">
@@ -15539,13 +14036,6 @@
       <c r="R235" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S235" s="10"/>
-      <c r="T235" s="10"/>
-      <c r="U235" s="10"/>
-      <c r="V235" s="10"/>
-      <c r="W235" s="10"/>
-      <c r="X235" s="10"/>
-      <c r="Y235" s="10"/>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" s="2" t="s">
@@ -15592,15 +14082,8 @@
       <c r="R236" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S236" s="10"/>
-      <c r="T236" s="10"/>
-      <c r="U236" s="10"/>
-      <c r="V236" s="10"/>
-      <c r="W236" s="10"/>
-      <c r="X236" s="10"/>
-      <c r="Y236" s="10"/>
-    </row>
-    <row r="237" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="237" spans="1:25">
       <c r="A237" s="2" t="s">
         <v>875</v>
       </c>
@@ -15645,13 +14128,6 @@
       <c r="R237" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="S237" s="10"/>
-      <c r="T237" s="10"/>
-      <c r="U237" s="10"/>
-      <c r="V237" s="10"/>
-      <c r="W237" s="10"/>
-      <c r="X237" s="10"/>
-      <c r="Y237" s="10"/>
     </row>
     <row r="238" spans="1:25">
       <c r="A238" s="2" t="s">
@@ -15698,13 +14174,6 @@
       <c r="R238" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S238" s="10"/>
-      <c r="T238" s="10"/>
-      <c r="U238" s="10"/>
-      <c r="V238" s="10"/>
-      <c r="W238" s="10"/>
-      <c r="X238" s="10"/>
-      <c r="Y238" s="10"/>
     </row>
     <row r="239" spans="1:25">
       <c r="A239" s="2" t="s">
@@ -15751,13 +14220,6 @@
       <c r="R239" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S239" s="10"/>
-      <c r="T239" s="10"/>
-      <c r="U239" s="10"/>
-      <c r="V239" s="10"/>
-      <c r="W239" s="10"/>
-      <c r="X239" s="10"/>
-      <c r="Y239" s="10"/>
     </row>
     <row r="240" spans="1:25">
       <c r="A240" s="2" t="s">
@@ -15804,13 +14266,6 @@
       <c r="R240" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S240" s="10"/>
-      <c r="T240" s="10"/>
-      <c r="U240" s="10"/>
-      <c r="V240" s="10"/>
-      <c r="W240" s="10"/>
-      <c r="X240" s="10"/>
-      <c r="Y240" s="10"/>
     </row>
     <row r="241" spans="1:25">
       <c r="A241" s="2" t="s">
@@ -15857,13 +14312,6 @@
       <c r="R241" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S241" s="10"/>
-      <c r="T241" s="10"/>
-      <c r="U241" s="10"/>
-      <c r="V241" s="10"/>
-      <c r="W241" s="10"/>
-      <c r="X241" s="10"/>
-      <c r="Y241" s="10"/>
     </row>
     <row r="242" spans="1:25">
       <c r="A242" s="2" t="s">
@@ -15910,13 +14358,6 @@
       <c r="R242" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S242" s="10"/>
-      <c r="T242" s="10"/>
-      <c r="U242" s="10"/>
-      <c r="V242" s="10"/>
-      <c r="W242" s="10"/>
-      <c r="X242" s="10"/>
-      <c r="Y242" s="10"/>
     </row>
     <row r="243" spans="1:25">
       <c r="A243" s="10"/>
@@ -15937,13 +14378,6 @@
       <c r="P243" s="10"/>
       <c r="Q243" s="10"/>
       <c r="R243" s="10"/>
-      <c r="S243" s="10"/>
-      <c r="T243" s="10"/>
-      <c r="U243" s="10"/>
-      <c r="V243" s="10"/>
-      <c r="W243" s="10"/>
-      <c r="X243" s="10"/>
-      <c r="Y243" s="10"/>
     </row>
     <row r="244" spans="1:25">
       <c r="A244" s="12" t="s">
@@ -15966,15 +14400,8 @@
       <c r="P244" s="12"/>
       <c r="Q244" s="12"/>
       <c r="R244" s="12"/>
-      <c r="S244" s="12"/>
-      <c r="T244" s="12"/>
-      <c r="U244" s="12"/>
-      <c r="V244" s="12"/>
-      <c r="W244" s="12"/>
-      <c r="X244" s="12"/>
-      <c r="Y244" s="12"/>
-    </row>
-    <row r="245" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="245" spans="1:25">
       <c r="A245" s="4" t="s">
         <v>30</v>
       </c>
@@ -16019,13 +14446,6 @@
       <c r="R245" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S245" s="10"/>
-      <c r="T245" s="10"/>
-      <c r="U245" s="10"/>
-      <c r="V245" s="10"/>
-      <c r="W245" s="10"/>
-      <c r="X245" s="10"/>
-      <c r="Y245" s="10"/>
     </row>
     <row r="246" spans="1:25">
       <c r="A246" s="2" t="s">
@@ -16072,13 +14492,6 @@
       <c r="R246" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="S246" s="10"/>
-      <c r="T246" s="10"/>
-      <c r="U246" s="10"/>
-      <c r="V246" s="10"/>
-      <c r="W246" s="10"/>
-      <c r="X246" s="10"/>
-      <c r="Y246" s="10"/>
     </row>
     <row r="247" spans="1:25">
       <c r="A247" s="2" t="s">
@@ -16125,15 +14538,8 @@
       <c r="R247" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="S247" s="10"/>
-      <c r="T247" s="10"/>
-      <c r="U247" s="10"/>
-      <c r="V247" s="10"/>
-      <c r="W247" s="10"/>
-      <c r="X247" s="10"/>
-      <c r="Y247" s="10"/>
-    </row>
-    <row r="248" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="248" spans="1:25">
       <c r="A248" s="2" t="s">
         <v>900</v>
       </c>
@@ -16178,13 +14584,6 @@
       <c r="R248" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="S248" s="10"/>
-      <c r="T248" s="10"/>
-      <c r="U248" s="10"/>
-      <c r="V248" s="10"/>
-      <c r="W248" s="10"/>
-      <c r="X248" s="10"/>
-      <c r="Y248" s="10"/>
     </row>
     <row r="249" spans="1:25">
       <c r="A249" s="2" t="s">
@@ -16231,15 +14630,8 @@
       <c r="R249" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S249" s="10"/>
-      <c r="T249" s="10"/>
-      <c r="U249" s="10"/>
-      <c r="V249" s="10"/>
-      <c r="W249" s="10"/>
-      <c r="X249" s="10"/>
-      <c r="Y249" s="10"/>
-    </row>
-    <row r="250" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="250" spans="1:25">
       <c r="A250" s="2" t="s">
         <v>916</v>
       </c>
@@ -16284,13 +14676,6 @@
       <c r="R250" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="S250" s="10"/>
-      <c r="T250" s="10"/>
-      <c r="U250" s="10"/>
-      <c r="V250" s="10"/>
-      <c r="W250" s="10"/>
-      <c r="X250" s="10"/>
-      <c r="Y250" s="10"/>
     </row>
     <row r="251" spans="1:25">
       <c r="A251" s="2" t="s">
@@ -16337,13 +14722,6 @@
       <c r="R251" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S251" s="10"/>
-      <c r="T251" s="10"/>
-      <c r="U251" s="10"/>
-      <c r="V251" s="10"/>
-      <c r="W251" s="10"/>
-      <c r="X251" s="10"/>
-      <c r="Y251" s="10"/>
     </row>
     <row r="252" spans="1:25">
       <c r="A252" s="2" t="s">
@@ -16390,13 +14768,6 @@
       <c r="R252" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S252" s="10"/>
-      <c r="T252" s="10"/>
-      <c r="U252" s="10"/>
-      <c r="V252" s="10"/>
-      <c r="W252" s="10"/>
-      <c r="X252" s="10"/>
-      <c r="Y252" s="10"/>
     </row>
     <row r="253" spans="1:25">
       <c r="A253" s="2" t="s">
@@ -16443,13 +14814,6 @@
       <c r="R253" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S253" s="10"/>
-      <c r="T253" s="10"/>
-      <c r="U253" s="10"/>
-      <c r="V253" s="10"/>
-      <c r="W253" s="10"/>
-      <c r="X253" s="10"/>
-      <c r="Y253" s="10"/>
     </row>
     <row r="254" spans="1:25">
       <c r="A254" s="2" t="s">
@@ -16496,13 +14860,6 @@
       <c r="R254" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S254" s="10"/>
-      <c r="T254" s="10"/>
-      <c r="U254" s="10"/>
-      <c r="V254" s="10"/>
-      <c r="W254" s="10"/>
-      <c r="X254" s="10"/>
-      <c r="Y254" s="10"/>
     </row>
     <row r="255" spans="1:25">
       <c r="A255" s="10"/>
@@ -16523,13 +14880,6 @@
       <c r="P255" s="10"/>
       <c r="Q255" s="10"/>
       <c r="R255" s="10"/>
-      <c r="S255" s="10"/>
-      <c r="T255" s="10"/>
-      <c r="U255" s="10"/>
-      <c r="V255" s="10"/>
-      <c r="W255" s="10"/>
-      <c r="X255" s="10"/>
-      <c r="Y255" s="10"/>
     </row>
     <row r="256" spans="1:25">
       <c r="A256" s="12" t="s">
@@ -16552,15 +14902,8 @@
       <c r="P256" s="12"/>
       <c r="Q256" s="12"/>
       <c r="R256" s="12"/>
-      <c r="S256" s="12"/>
-      <c r="T256" s="12"/>
-      <c r="U256" s="12"/>
-      <c r="V256" s="12"/>
-      <c r="W256" s="12"/>
-      <c r="X256" s="12"/>
-      <c r="Y256" s="12"/>
-    </row>
-    <row r="257" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="257" spans="1:25">
       <c r="A257" s="4" t="s">
         <v>30</v>
       </c>
@@ -16605,13 +14948,6 @@
       <c r="R257" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S257" s="10"/>
-      <c r="T257" s="10"/>
-      <c r="U257" s="10"/>
-      <c r="V257" s="10"/>
-      <c r="W257" s="10"/>
-      <c r="X257" s="10"/>
-      <c r="Y257" s="10"/>
     </row>
     <row r="258" spans="1:25">
       <c r="A258" s="2" t="s">
@@ -16658,13 +14994,6 @@
       <c r="R258" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S258" s="10"/>
-      <c r="T258" s="10"/>
-      <c r="U258" s="10"/>
-      <c r="V258" s="10"/>
-      <c r="W258" s="10"/>
-      <c r="X258" s="10"/>
-      <c r="Y258" s="10"/>
     </row>
     <row r="259" spans="1:25">
       <c r="A259" s="2" t="s">
@@ -16711,13 +15040,6 @@
       <c r="R259" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="S259" s="10"/>
-      <c r="T259" s="10"/>
-      <c r="U259" s="10"/>
-      <c r="V259" s="10"/>
-      <c r="W259" s="10"/>
-      <c r="X259" s="10"/>
-      <c r="Y259" s="10"/>
     </row>
     <row r="260" spans="1:25">
       <c r="A260" s="2" t="s">
@@ -16764,13 +15086,6 @@
       <c r="R260" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="S260" s="10"/>
-      <c r="T260" s="10"/>
-      <c r="U260" s="10"/>
-      <c r="V260" s="10"/>
-      <c r="W260" s="10"/>
-      <c r="X260" s="10"/>
-      <c r="Y260" s="10"/>
     </row>
     <row r="261" spans="1:25">
       <c r="A261" s="2" t="s">
@@ -16817,13 +15132,6 @@
       <c r="R261" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="S261" s="10"/>
-      <c r="T261" s="10"/>
-      <c r="U261" s="10"/>
-      <c r="V261" s="10"/>
-      <c r="W261" s="10"/>
-      <c r="X261" s="10"/>
-      <c r="Y261" s="10"/>
     </row>
     <row r="262" spans="1:25">
       <c r="A262" s="2" t="s">
@@ -16870,15 +15178,8 @@
       <c r="R262" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="S262" s="10"/>
-      <c r="T262" s="10"/>
-      <c r="U262" s="10"/>
-      <c r="V262" s="10"/>
-      <c r="W262" s="10"/>
-      <c r="X262" s="10"/>
-      <c r="Y262" s="10"/>
-    </row>
-    <row r="263" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="263" spans="1:25">
       <c r="A263" s="2" t="s">
         <v>946</v>
       </c>
@@ -16923,13 +15224,6 @@
       <c r="R263" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="S263" s="10"/>
-      <c r="T263" s="10"/>
-      <c r="U263" s="10"/>
-      <c r="V263" s="10"/>
-      <c r="W263" s="10"/>
-      <c r="X263" s="10"/>
-      <c r="Y263" s="10"/>
     </row>
     <row r="264" spans="1:25">
       <c r="A264" s="2" t="s">
@@ -16976,13 +15270,6 @@
       <c r="R264" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S264" s="10"/>
-      <c r="T264" s="10"/>
-      <c r="U264" s="10"/>
-      <c r="V264" s="10"/>
-      <c r="W264" s="10"/>
-      <c r="X264" s="10"/>
-      <c r="Y264" s="10"/>
     </row>
     <row r="265" spans="1:25">
       <c r="A265" s="2" t="s">
@@ -17029,13 +15316,6 @@
       <c r="R265" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="S265" s="10"/>
-      <c r="T265" s="10"/>
-      <c r="U265" s="10"/>
-      <c r="V265" s="10"/>
-      <c r="W265" s="10"/>
-      <c r="X265" s="10"/>
-      <c r="Y265" s="10"/>
     </row>
     <row r="266" spans="1:25">
       <c r="A266" s="2" t="s">
@@ -17082,13 +15362,6 @@
       <c r="R266" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S266" s="10"/>
-      <c r="T266" s="10"/>
-      <c r="U266" s="10"/>
-      <c r="V266" s="10"/>
-      <c r="W266" s="10"/>
-      <c r="X266" s="10"/>
-      <c r="Y266" s="10"/>
     </row>
     <row r="267" spans="1:25">
       <c r="A267" s="2" t="s">
@@ -17135,13 +15408,6 @@
       <c r="R267" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="S267" s="10"/>
-      <c r="T267" s="10"/>
-      <c r="U267" s="10"/>
-      <c r="V267" s="10"/>
-      <c r="W267" s="10"/>
-      <c r="X267" s="10"/>
-      <c r="Y267" s="10"/>
     </row>
     <row r="268" spans="1:25">
       <c r="A268" s="2" t="s">
@@ -17188,13 +15454,6 @@
       <c r="R268" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S268" s="10"/>
-      <c r="T268" s="10"/>
-      <c r="U268" s="10"/>
-      <c r="V268" s="10"/>
-      <c r="W268" s="10"/>
-      <c r="X268" s="10"/>
-      <c r="Y268" s="10"/>
     </row>
     <row r="269" spans="1:25">
       <c r="A269" s="2" t="s">
@@ -17241,13 +15500,6 @@
       <c r="R269" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S269" s="10"/>
-      <c r="T269" s="10"/>
-      <c r="U269" s="10"/>
-      <c r="V269" s="10"/>
-      <c r="W269" s="10"/>
-      <c r="X269" s="10"/>
-      <c r="Y269" s="10"/>
     </row>
     <row r="270" spans="1:25">
       <c r="A270" s="2" t="s">
@@ -17294,13 +15546,6 @@
       <c r="R270" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S270" s="10"/>
-      <c r="T270" s="10"/>
-      <c r="U270" s="10"/>
-      <c r="V270" s="10"/>
-      <c r="W270" s="10"/>
-      <c r="X270" s="10"/>
-      <c r="Y270" s="10"/>
     </row>
     <row r="271" spans="1:25">
       <c r="A271" s="2" t="s">
@@ -17347,13 +15592,6 @@
       <c r="R271" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S271" s="10"/>
-      <c r="T271" s="10"/>
-      <c r="U271" s="10"/>
-      <c r="V271" s="10"/>
-      <c r="W271" s="10"/>
-      <c r="X271" s="10"/>
-      <c r="Y271" s="10"/>
     </row>
     <row r="272" spans="1:25">
       <c r="A272" s="10"/>
@@ -17374,13 +15612,6 @@
       <c r="P272" s="10"/>
       <c r="Q272" s="10"/>
       <c r="R272" s="10"/>
-      <c r="S272" s="10"/>
-      <c r="T272" s="10"/>
-      <c r="U272" s="10"/>
-      <c r="V272" s="10"/>
-      <c r="W272" s="10"/>
-      <c r="X272" s="10"/>
-      <c r="Y272" s="10"/>
     </row>
     <row r="273" spans="1:25">
       <c r="A273" s="10"/>
@@ -17403,13 +15634,6 @@
       <c r="P273" s="15"/>
       <c r="Q273" s="15"/>
       <c r="R273" s="15"/>
-      <c r="S273" s="15"/>
-      <c r="T273" s="15"/>
-      <c r="U273" s="15"/>
-      <c r="V273" s="10"/>
-      <c r="W273" s="10"/>
-      <c r="X273" s="3"/>
-      <c r="Y273" s="3"/>
     </row>
     <row r="274" spans="1:25">
       <c r="A274" s="12" t="s">
@@ -17432,15 +15656,8 @@
       <c r="P274" s="12"/>
       <c r="Q274" s="12"/>
       <c r="R274" s="12"/>
-      <c r="S274" s="12"/>
-      <c r="T274" s="12"/>
-      <c r="U274" s="12"/>
-      <c r="V274" s="12"/>
-      <c r="W274" s="12"/>
-      <c r="X274" s="12"/>
-      <c r="Y274" s="12"/>
-    </row>
-    <row r="275" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="275" spans="1:25">
       <c r="A275" s="4" t="s">
         <v>30</v>
       </c>
@@ -17485,13 +15702,6 @@
       <c r="R275" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S275" s="10"/>
-      <c r="T275" s="10"/>
-      <c r="U275" s="10"/>
-      <c r="V275" s="10"/>
-      <c r="W275" s="10"/>
-      <c r="X275" s="10"/>
-      <c r="Y275" s="10"/>
     </row>
     <row r="276" spans="1:25">
       <c r="A276" s="2" t="s">
@@ -17538,13 +15748,6 @@
       <c r="R276" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S276" s="10"/>
-      <c r="T276" s="10"/>
-      <c r="U276" s="10"/>
-      <c r="V276" s="10"/>
-      <c r="W276" s="10"/>
-      <c r="X276" s="10"/>
-      <c r="Y276" s="10"/>
     </row>
     <row r="277" spans="1:25">
       <c r="A277" s="2" t="s">
@@ -17591,13 +15794,6 @@
       <c r="R277" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S277" s="10"/>
-      <c r="T277" s="10"/>
-      <c r="U277" s="10"/>
-      <c r="V277" s="10"/>
-      <c r="W277" s="10"/>
-      <c r="X277" s="10"/>
-      <c r="Y277" s="10"/>
     </row>
     <row r="278" spans="1:25">
       <c r="A278" s="2" t="s">
@@ -17644,13 +15840,6 @@
       <c r="R278" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="S278" s="10"/>
-      <c r="T278" s="10"/>
-      <c r="U278" s="10"/>
-      <c r="V278" s="10"/>
-      <c r="W278" s="10"/>
-      <c r="X278" s="10"/>
-      <c r="Y278" s="10"/>
     </row>
     <row r="279" spans="1:25">
       <c r="A279" s="2" t="s">
@@ -17697,13 +15886,6 @@
       <c r="R279" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S279" s="10"/>
-      <c r="T279" s="10"/>
-      <c r="U279" s="10"/>
-      <c r="V279" s="10"/>
-      <c r="W279" s="10"/>
-      <c r="X279" s="10"/>
-      <c r="Y279" s="10"/>
     </row>
     <row r="280" spans="1:25">
       <c r="A280" s="2" t="s">
@@ -17750,15 +15932,8 @@
       <c r="R280" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="S280" s="10"/>
-      <c r="T280" s="10"/>
-      <c r="U280" s="10"/>
-      <c r="V280" s="10"/>
-      <c r="W280" s="10"/>
-      <c r="X280" s="10"/>
-      <c r="Y280" s="10"/>
-    </row>
-    <row r="281" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="281" spans="1:25">
       <c r="A281" s="2" t="s">
         <v>497</v>
       </c>
@@ -17803,13 +15978,6 @@
       <c r="R281" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="S281" s="10"/>
-      <c r="T281" s="10"/>
-      <c r="U281" s="10"/>
-      <c r="V281" s="10"/>
-      <c r="W281" s="10"/>
-      <c r="X281" s="10"/>
-      <c r="Y281" s="10"/>
     </row>
     <row r="282" spans="1:25">
       <c r="A282" s="2" t="s">
@@ -17856,13 +16024,6 @@
       <c r="R282" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="S282" s="10"/>
-      <c r="T282" s="10"/>
-      <c r="U282" s="10"/>
-      <c r="V282" s="10"/>
-      <c r="W282" s="10"/>
-      <c r="X282" s="10"/>
-      <c r="Y282" s="10"/>
     </row>
     <row r="283" spans="1:25">
       <c r="A283" s="2" t="s">
@@ -17909,13 +16070,6 @@
       <c r="R283" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S283" s="10"/>
-      <c r="T283" s="10"/>
-      <c r="U283" s="10"/>
-      <c r="V283" s="10"/>
-      <c r="W283" s="10"/>
-      <c r="X283" s="10"/>
-      <c r="Y283" s="10"/>
     </row>
     <row r="284" spans="1:25">
       <c r="A284" s="2" t="s">
@@ -17962,13 +16116,6 @@
       <c r="R284" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S284" s="10"/>
-      <c r="T284" s="10"/>
-      <c r="U284" s="10"/>
-      <c r="V284" s="10"/>
-      <c r="W284" s="10"/>
-      <c r="X284" s="10"/>
-      <c r="Y284" s="10"/>
     </row>
     <row r="285" spans="1:25">
       <c r="A285" s="10"/>
@@ -17989,13 +16136,6 @@
       <c r="P285" s="10"/>
       <c r="Q285" s="10"/>
       <c r="R285" s="10"/>
-      <c r="S285" s="10"/>
-      <c r="T285" s="10"/>
-      <c r="U285" s="10"/>
-      <c r="V285" s="10"/>
-      <c r="W285" s="10"/>
-      <c r="X285" s="10"/>
-      <c r="Y285" s="10"/>
     </row>
     <row r="286" spans="1:25">
       <c r="A286" s="12" t="s">
@@ -18018,15 +16158,8 @@
       <c r="P286" s="12"/>
       <c r="Q286" s="12"/>
       <c r="R286" s="12"/>
-      <c r="S286" s="12"/>
-      <c r="T286" s="12"/>
-      <c r="U286" s="12"/>
-      <c r="V286" s="12"/>
-      <c r="W286" s="12"/>
-      <c r="X286" s="12"/>
-      <c r="Y286" s="12"/>
-    </row>
-    <row r="287" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="287" spans="1:25">
       <c r="A287" s="4" t="s">
         <v>30</v>
       </c>
@@ -18071,13 +16204,6 @@
       <c r="R287" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S287" s="10"/>
-      <c r="T287" s="10"/>
-      <c r="U287" s="10"/>
-      <c r="V287" s="10"/>
-      <c r="W287" s="10"/>
-      <c r="X287" s="10"/>
-      <c r="Y287" s="10"/>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" s="2" t="s">
@@ -18124,15 +16250,8 @@
       <c r="R288" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="S288" s="10"/>
-      <c r="T288" s="10"/>
-      <c r="U288" s="10"/>
-      <c r="V288" s="10"/>
-      <c r="W288" s="10"/>
-      <c r="X288" s="10"/>
-      <c r="Y288" s="10"/>
-    </row>
-    <row r="289" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="289" spans="1:25">
       <c r="A289" s="2" t="s">
         <v>991</v>
       </c>
@@ -18177,15 +16296,8 @@
       <c r="R289" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="S289" s="10"/>
-      <c r="T289" s="10"/>
-      <c r="U289" s="10"/>
-      <c r="V289" s="10"/>
-      <c r="W289" s="10"/>
-      <c r="X289" s="10"/>
-      <c r="Y289" s="10"/>
-    </row>
-    <row r="290" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="290" spans="1:25">
       <c r="A290" s="2" t="s">
         <v>999</v>
       </c>
@@ -18230,13 +16342,6 @@
       <c r="R290" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="S290" s="10"/>
-      <c r="T290" s="10"/>
-      <c r="U290" s="10"/>
-      <c r="V290" s="10"/>
-      <c r="W290" s="10"/>
-      <c r="X290" s="10"/>
-      <c r="Y290" s="10"/>
     </row>
     <row r="291" spans="1:25">
       <c r="A291" s="2" t="s">
@@ -18283,13 +16388,6 @@
       <c r="R291" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="S291" s="10"/>
-      <c r="T291" s="10"/>
-      <c r="U291" s="10"/>
-      <c r="V291" s="10"/>
-      <c r="W291" s="10"/>
-      <c r="X291" s="10"/>
-      <c r="Y291" s="10"/>
     </row>
     <row r="292" spans="1:25">
       <c r="A292" s="2" t="s">
@@ -18336,13 +16434,6 @@
       <c r="R292" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S292" s="10"/>
-      <c r="T292" s="10"/>
-      <c r="U292" s="10"/>
-      <c r="V292" s="10"/>
-      <c r="W292" s="10"/>
-      <c r="X292" s="10"/>
-      <c r="Y292" s="10"/>
     </row>
     <row r="293" spans="1:25">
       <c r="A293" s="2" t="s">
@@ -18389,13 +16480,6 @@
       <c r="R293" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="S293" s="10"/>
-      <c r="T293" s="10"/>
-      <c r="U293" s="10"/>
-      <c r="V293" s="10"/>
-      <c r="W293" s="10"/>
-      <c r="X293" s="10"/>
-      <c r="Y293" s="10"/>
     </row>
     <row r="294" spans="1:25">
       <c r="A294" s="2" t="s">
@@ -18442,13 +16526,6 @@
       <c r="R294" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S294" s="10"/>
-      <c r="T294" s="10"/>
-      <c r="U294" s="10"/>
-      <c r="V294" s="10"/>
-      <c r="W294" s="10"/>
-      <c r="X294" s="10"/>
-      <c r="Y294" s="10"/>
     </row>
     <row r="295" spans="1:25">
       <c r="A295" s="2" t="s">
@@ -18495,13 +16572,6 @@
       <c r="R295" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S295" s="10"/>
-      <c r="T295" s="10"/>
-      <c r="U295" s="10"/>
-      <c r="V295" s="10"/>
-      <c r="W295" s="10"/>
-      <c r="X295" s="10"/>
-      <c r="Y295" s="10"/>
     </row>
     <row r="296" spans="1:25">
       <c r="A296" s="2" t="s">
@@ -18548,13 +16618,6 @@
       <c r="R296" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S296" s="10"/>
-      <c r="T296" s="10"/>
-      <c r="U296" s="10"/>
-      <c r="V296" s="10"/>
-      <c r="W296" s="10"/>
-      <c r="X296" s="10"/>
-      <c r="Y296" s="10"/>
     </row>
     <row r="297" spans="1:25">
       <c r="A297" s="10"/>
@@ -18575,13 +16638,6 @@
       <c r="P297" s="10"/>
       <c r="Q297" s="10"/>
       <c r="R297" s="10"/>
-      <c r="S297" s="10"/>
-      <c r="T297" s="10"/>
-      <c r="U297" s="10"/>
-      <c r="V297" s="10"/>
-      <c r="W297" s="10"/>
-      <c r="X297" s="10"/>
-      <c r="Y297" s="10"/>
     </row>
     <row r="298" spans="1:25">
       <c r="A298" s="12" t="s">
@@ -18604,15 +16660,8 @@
       <c r="P298" s="12"/>
       <c r="Q298" s="12"/>
       <c r="R298" s="12"/>
-      <c r="S298" s="12"/>
-      <c r="T298" s="12"/>
-      <c r="U298" s="12"/>
-      <c r="V298" s="12"/>
-      <c r="W298" s="12"/>
-      <c r="X298" s="12"/>
-      <c r="Y298" s="12"/>
-    </row>
-    <row r="299" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="299" spans="1:25">
       <c r="A299" s="4" t="s">
         <v>30</v>
       </c>
@@ -18657,13 +16706,6 @@
       <c r="R299" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S299" s="10"/>
-      <c r="T299" s="10"/>
-      <c r="U299" s="10"/>
-      <c r="V299" s="10"/>
-      <c r="W299" s="10"/>
-      <c r="X299" s="10"/>
-      <c r="Y299" s="10"/>
     </row>
     <row r="300" spans="1:25">
       <c r="A300" s="2" t="s">
@@ -18710,13 +16752,6 @@
       <c r="R300" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="S300" s="10"/>
-      <c r="T300" s="10"/>
-      <c r="U300" s="10"/>
-      <c r="V300" s="10"/>
-      <c r="W300" s="10"/>
-      <c r="X300" s="10"/>
-      <c r="Y300" s="10"/>
     </row>
     <row r="301" spans="1:25">
       <c r="A301" s="2" t="s">
@@ -18763,15 +16798,8 @@
       <c r="R301" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="S301" s="10"/>
-      <c r="T301" s="10"/>
-      <c r="U301" s="10"/>
-      <c r="V301" s="10"/>
-      <c r="W301" s="10"/>
-      <c r="X301" s="10"/>
-      <c r="Y301" s="10"/>
-    </row>
-    <row r="302" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="302" spans="1:25">
       <c r="A302" s="2" t="s">
         <v>1034</v>
       </c>
@@ -18816,15 +16844,8 @@
       <c r="R302" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="S302" s="10"/>
-      <c r="T302" s="10"/>
-      <c r="U302" s="10"/>
-      <c r="V302" s="10"/>
-      <c r="W302" s="10"/>
-      <c r="X302" s="10"/>
-      <c r="Y302" s="10"/>
-    </row>
-    <row r="303" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="303" spans="1:25">
       <c r="A303" s="2" t="s">
         <v>1042</v>
       </c>
@@ -18869,13 +16890,6 @@
       <c r="R303" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S303" s="10"/>
-      <c r="T303" s="10"/>
-      <c r="U303" s="10"/>
-      <c r="V303" s="10"/>
-      <c r="W303" s="10"/>
-      <c r="X303" s="10"/>
-      <c r="Y303" s="10"/>
     </row>
     <row r="304" spans="1:25">
       <c r="A304" s="2" t="s">
@@ -18922,13 +16936,6 @@
       <c r="R304" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="S304" s="10"/>
-      <c r="T304" s="10"/>
-      <c r="U304" s="10"/>
-      <c r="V304" s="10"/>
-      <c r="W304" s="10"/>
-      <c r="X304" s="10"/>
-      <c r="Y304" s="10"/>
     </row>
     <row r="305" spans="1:25">
       <c r="A305" s="2" t="s">
@@ -18975,13 +16982,6 @@
       <c r="R305" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="S305" s="10"/>
-      <c r="T305" s="10"/>
-      <c r="U305" s="10"/>
-      <c r="V305" s="10"/>
-      <c r="W305" s="10"/>
-      <c r="X305" s="10"/>
-      <c r="Y305" s="10"/>
     </row>
     <row r="306" spans="1:25">
       <c r="A306" s="2" t="s">
@@ -19028,13 +17028,6 @@
       <c r="R306" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="S306" s="10"/>
-      <c r="T306" s="10"/>
-      <c r="U306" s="10"/>
-      <c r="V306" s="10"/>
-      <c r="W306" s="10"/>
-      <c r="X306" s="10"/>
-      <c r="Y306" s="10"/>
     </row>
     <row r="307" spans="1:25">
       <c r="A307" s="2" t="s">
@@ -19081,13 +17074,6 @@
       <c r="R307" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="S307" s="10"/>
-      <c r="T307" s="10"/>
-      <c r="U307" s="10"/>
-      <c r="V307" s="10"/>
-      <c r="W307" s="10"/>
-      <c r="X307" s="10"/>
-      <c r="Y307" s="10"/>
     </row>
     <row r="308" spans="1:25">
       <c r="A308" s="2" t="s">
@@ -19134,13 +17120,6 @@
       <c r="R308" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="S308" s="10"/>
-      <c r="T308" s="10"/>
-      <c r="U308" s="10"/>
-      <c r="V308" s="10"/>
-      <c r="W308" s="10"/>
-      <c r="X308" s="10"/>
-      <c r="Y308" s="10"/>
     </row>
     <row r="309" spans="1:25">
       <c r="A309" s="2" t="s">
@@ -19187,13 +17166,6 @@
       <c r="R309" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S309" s="10"/>
-      <c r="T309" s="10"/>
-      <c r="U309" s="10"/>
-      <c r="V309" s="10"/>
-      <c r="W309" s="10"/>
-      <c r="X309" s="10"/>
-      <c r="Y309" s="10"/>
     </row>
     <row r="310" spans="1:25">
       <c r="A310" s="2" t="s">
@@ -19240,13 +17212,6 @@
       <c r="R310" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S310" s="10"/>
-      <c r="T310" s="10"/>
-      <c r="U310" s="10"/>
-      <c r="V310" s="10"/>
-      <c r="W310" s="10"/>
-      <c r="X310" s="10"/>
-      <c r="Y310" s="10"/>
     </row>
     <row r="311" spans="1:25">
       <c r="A311" s="2" t="s">
@@ -19293,13 +17258,6 @@
       <c r="R311" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S311" s="10"/>
-      <c r="T311" s="10"/>
-      <c r="U311" s="10"/>
-      <c r="V311" s="10"/>
-      <c r="W311" s="10"/>
-      <c r="X311" s="10"/>
-      <c r="Y311" s="10"/>
     </row>
     <row r="312" spans="1:25">
       <c r="A312" s="2" t="s">
@@ -19346,13 +17304,6 @@
       <c r="R312" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="S312" s="10"/>
-      <c r="T312" s="10"/>
-      <c r="U312" s="10"/>
-      <c r="V312" s="10"/>
-      <c r="W312" s="10"/>
-      <c r="X312" s="10"/>
-      <c r="Y312" s="10"/>
     </row>
     <row r="313" spans="1:25">
       <c r="A313" s="8"/>
@@ -19373,7 +17324,6 @@
       <c r="P313" s="8"/>
       <c r="Q313" s="8"/>
       <c r="R313" s="8"/>
-      <c r="S313" s="8"/>
     </row>
     <row r="314" spans="1:25">
       <c r="A314" s="8"/>
@@ -19394,7 +17344,6 @@
       <c r="P314" s="8"/>
       <c r="Q314" s="8"/>
       <c r="R314" s="8"/>
-      <c r="S314" s="8"/>
     </row>
     <row r="315" spans="1:25">
       <c r="A315" s="7"/>
@@ -19415,7 +17364,6 @@
       <c r="P315" s="7"/>
       <c r="Q315" s="7"/>
       <c r="R315" s="7"/>
-      <c r="S315" s="7"/>
     </row>
     <row r="316" spans="1:25">
       <c r="A316" s="8"/>
@@ -19436,7 +17384,6 @@
       <c r="P316" s="8"/>
       <c r="Q316" s="8"/>
       <c r="R316" s="8"/>
-      <c r="S316" s="8"/>
     </row>
     <row r="317" spans="1:25">
       <c r="A317" s="7"/>
@@ -19457,7 +17404,6 @@
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
       <c r="R317" s="7"/>
-      <c r="S317" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1106">
